--- a/Extras/eval comparison.xlsx
+++ b/Extras/eval comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracks\CS4\graduation project\Implemented papers\Stereo-3D-Detection\eval_mAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracks\CS4\graduation project\Implemented papers\Stereo-3D-Detection\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03868E6E-0D14-4727-9E30-1D421E496078}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31233D2-4489-4215-9C24-819CE2C4DC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A1D0F56-EFF0-4DA7-9382-A5F6FA3704EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>3D</t>
   </si>
@@ -61,6 +61,9 @@
                                Filter
                                  IOU
 Point cloud                                                                           </t>
+  </si>
+  <si>
+    <t>New SPARSE</t>
   </si>
 </sst>
 </file>
@@ -105,8 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,11 +435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33966A2E-F7FD-48F1-BAAE-E934D4C2E976}">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33966A2E-F7FD-48F1-BAAE-E934D4C2E976}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,78 +448,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3">
         <v>0.5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>0.7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>0.5</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>0.7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>0.7</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>0.5</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -544,61 +550,90 @@
         <v>0.54201114177703802</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>0.33093234896659801</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>0.122834369540214</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.32755360007286</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.126003518700599</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.36979430913925099</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>0.19311673939228</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>0.36370000243186901</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.19446860253810799</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.35507225990295399</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.13539999723434401</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.35456535220146101</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.13898931443691201</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.39997124671936002</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.21033181250095301</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.39365547895431502</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.21417874097824</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <v>0.34560078382491999</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <v>0.114516116678714</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>0.33783051371574402</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>0.11591805517673399</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>0.38945791125297502</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>0.20565006136894201</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>0.37728968262672402</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <v>0.20418462157249401</v>
       </c>
     </row>
@@ -622,6 +657,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Extras/eval comparison.xlsx
+++ b/Extras/eval comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tracks\CS4\graduation project\Implemented papers\Stereo-3D-Detection\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31233D2-4489-4215-9C24-819CE2C4DC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBC68A6-11FC-4C63-BF54-F3A04FCE6005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A1D0F56-EFF0-4DA7-9382-A5F6FA3704EC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>3D</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>SDN</t>
-  </si>
-  <si>
-    <t>SPARSE</t>
   </si>
   <si>
     <t>DENSE</t>
@@ -63,14 +60,30 @@
 Point cloud                                                                           </t>
   </si>
   <si>
-    <t>New SPARSE</t>
+    <t>After optimizaion &amp; Before training</t>
+  </si>
+  <si>
+    <t>After optimizaion &amp; After training</t>
+  </si>
+  <si>
+    <t>Before optimizaion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,14 +118,12 @@
       </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -122,9 +133,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -435,11 +453,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33966A2E-F7FD-48F1-BAAE-E934D4C2E976}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33966A2E-F7FD-48F1-BAAE-E934D4C2E976}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,169 +466,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.33093234896659801</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.122834369540214</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.32755360007286</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.126003518700599</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0.36979430913925099</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.19311673939228</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.36370000243186901</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.19446860253810799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.71213132143020597</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.40704709291458102</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.71043926477432195</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.40875607728958102</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.74397176504135099</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.540419220924377</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.74186408519744795</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.54201114177703802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.33093234896659801</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.122834369540214</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.32755360007286</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.126003518700599</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.36979430913925099</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.19311673939228</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.36370000243186901</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0.19446860253810799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4">
+        <v>0.18720987439155501</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4.7846879810094799E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.18697489798069</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4.9548972398042603E-2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.22819882631301799</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8.7574720382690402E-2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.22479142248630499</v>
+      </c>
+      <c r="I6" s="4">
+        <v>8.9949779212474795E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>0.35507225990295399</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>0.13539999723434401</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="4">
         <v>0.35456535220146101</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>0.13898931443691201</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>0.39997124671936002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>0.21033181250095301</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>0.39365547895431502</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>0.21417874097824</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1">
         <v>0.34560078382491999</v>
@@ -637,25 +655,55 @@
         <v>0.20418462157249401</v>
       </c>
     </row>
+    <row r="9" spans="1:9" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.71213132143020597</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.40704709291458102</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.71043926477432195</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.40875607728958102</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.74397176504135099</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.540419220924377</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.74186408519744795</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.54201114177703802</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>